--- a/DOM_Banner/output/dept_banner/David Lieberman_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/David Lieberman_2023.xlsx
@@ -1417,7 +1417,7 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2508972003", "https://openalex.org/W3164443575", "https://openalex.org/W1953458986", "https://openalex.org/W2472915391", "https://openalex.org/W4318898843", "https://openalex.org/W2400972739", "https://openalex.org/W3196030482", "https://openalex.org/W3176828964", "https://openalex.org/W4381987767", "https://openalex.org/W4382401260")</t>
+          <t>c("https://openalex.org/W1997041160", "https://openalex.org/W2597962500", "https://openalex.org/W2095327934", "https://openalex.org/W2320242398", "https://openalex.org/W2147946132", "https://openalex.org/W2328853164", "https://openalex.org/W1553015389", "https://openalex.org/W3027591656", "https://openalex.org/W2364940938", "https://openalex.org/W2602739028")</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
@@ -2302,7 +2302,7 @@
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2153733592", "https://openalex.org/W3164443575", "https://openalex.org/W2520919442", "https://openalex.org/W2508972003", "https://openalex.org/W4286294890", "https://openalex.org/W2731272749", "https://openalex.org/W3177012050", "https://openalex.org/W4310490811", "https://openalex.org/W2889135485", "https://openalex.org/W3205137107")</t>
+          <t>c("https://openalex.org/W2071708517", "https://openalex.org/W2164421236", "https://openalex.org/W2327060713", "https://openalex.org/W2897483101", "https://openalex.org/W3205778615", "https://openalex.org/W3005988190", "https://openalex.org/W3204077203", "https://openalex.org/W2581111720", "https://openalex.org/W3157477980", "https://openalex.org/W4380082746")</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/David Lieberman_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/David Lieberman_2023.xlsx
@@ -1771,7 +1771,7 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2508972003", "https://openalex.org/W1953458986", "https://openalex.org/W2472915391", "https://openalex.org/W4318898843", "https://openalex.org/W2400972739", "https://openalex.org/W3196030482", "https://openalex.org/W3176828964", "https://openalex.org/W4381987767", "https://openalex.org/W4382401260", "https://openalex.org/W3164443575")</t>
+          <t>c("https://openalex.org/W2948670949", "https://openalex.org/W4288047943", "https://openalex.org/W4232484699", "https://openalex.org/W2990655940", "https://openalex.org/W2064573700", "https://openalex.org/W1797990060", "https://openalex.org/W2478535484", "https://openalex.org/W2473636215", "https://openalex.org/W4242025311", "https://openalex.org/W1590279850")</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/David Lieberman_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/David Lieberman_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>1Department of Pathology and Laboratory Medicine, Hospital of the University of Pennsylvania, Philadelphia, PA; 2Division of Hematology-Oncology, Department of Medicine, Hospital of the University of Pennsylvania, Philadelphia, PA; 3Department of Biomedical and Health Informatics, Children's Hospital of Philadelphia, Philadelphia, PA; 2Division of Hematology-Oncology, Department of Medicine, Hospital of the University of Pennsylvania, Philadelphia, PA; 4Comprehensive Bone Marrow Failure Center, Children's Hospital of Philadelphia, Philadelphia, PA; 2Division of Hematology-Oncology, Department of Medicine, Hospital of the University of Pennsylvania, Philadelphia, PA; 2Division of Hematology-Oncology, Department of Medicine, Hospital of the University of Pennsylvania, Philadelphia, PA; 2Division of Hematology-Oncology, Department of Medicine, Hospital of the University of Pennsylvania, Philadelphia, PA; 2Division of Hematology-Oncology, Department of Medicine, Hospital of the University of Pennsylvania, Philadelphia, PA; 2Division of Hematology-Oncology, Department of Medicine, Hospital of the University of Pennsylvania, Philadelphia, PA; 2Division of Hematology-Oncology, Department of Medicine, Hospital of the University of Pennsylvania, Philadelphia, PA; 4Comprehensive Bone Marrow Failure Center, Children's Hospital of Philadelphia, Philadelphia, PA; 2Division of Hematology-Oncology, Department of Medicine, Hospital of the University of Pennsylvania, Philadelphia, PA; 5Department of Pediatrics, Children's Hospital of Pennsylvania, Philadelphia, PA; 2Division of Hematology-Oncology, Department of Medicine, Hospital of the University of Pennsylvania, Philadelphia, PA; 2Division of Hematology-Oncology, Department of Medicine, Hospital of the University of Pennsylvania, Philadelphia, PA; 3Department of Biomedical and Health Informatics, Children's Hospital of Philadelphia, Philadelphia, PA; 6Department of Pediatrics, Hospital of the University of Pennsylvania, Philadelphia, PA; 1Department of Pathology and Laboratory Medicine, Hospital of the University of Pennsylvania, Philadelphia, PA; 1Department of Pathology and Laboratory Medicine, Hospital of the University of Pennsylvania, Philadelphia, PA; 1Department of Pathology and Laboratory Medicine, Hospital of the University of Pennsylvania, Philadelphia, PA; 1Department of Pathology and Laboratory Medicine, Hospital of the University of Pennsylvania, Philadelphia, PA; 7Division of Hematology, Medical Oncology, and Palliative Care, Department of Medicine, University of Wisconsin-Madison, Madison, WI; 7Division of Hematology, Medical Oncology, and Palliative Care, Department of Medicine, University of Wisconsin-Madison, Madison, WI; 7Division of Hematology, Medical Oncology, and Palliative Care, Department of Medicine, University of Wisconsin-Madison, Madison, WI; 4Comprehensive Bone Marrow Failure Center, Children's Hospital of Philadelphia, Philadelphia, PA; 8Division of Oncology, Department of Pediatrics, Children's Hospital of Philadelphia, Philadelphia, PA; 9Blizard Institute Faculty of Medicine and Dentistry, Queen Mary University of London, London, United Kingdom; 9Blizard Institute Faculty of Medicine and Dentistry, Queen Mary University of London, London, United Kingdom; 10Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, The Ohio State University, Columbus, OH; 7Division of Hematology, Medical Oncology, and Palliative Care, Department of Medicine, University of Wisconsin-Madison, Madison, WI; 1Department of Pathology and Laboratory Medicine, Hospital of the University of Pennsylvania, Philadelphia, PA; 4Comprehensive Bone Marrow Failure Center, Children's Hospital of Philadelphia, Philadelphia, PA; 8Division of Oncology, Department of Pediatrics, Children's Hospital of Philadelphia, Philadelphia, PA; 2Division of Hematology-Oncology, Department of Medicine, Hospital of the University of Pennsylvania, Philadelphia, PA; 4Comprehensive Bone Marrow Failure Center, Children's Hospital of Philadelphia, Philadelphia, PA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4389235263</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>DNA Damage Response Constrains Cell Growth and Drives Clonal Hematopoiesis in Telomere Biology Disorders</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-11-28</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Blood</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2023-173666</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2023-173666</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,24 +539,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361929444</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Supplemental Table 6 from Detection of Therapeutically Targetable Driver and Resistance Mutations in Lung Cancer Patients by Next-Generation Sequencing of Cell-Free Circulating Tumor DNA</t>
+          <t>https://openalex.org/W4361929674</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>Supplemental Table 4 from Detection of Therapeutically Targetable Driver and Resistance Mutations in Lung Cancer Patients by Next-Generation Sequencing of Cell-Free Circulating Tumor DNA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -554,50 +564,55 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22467332.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22467338.v1</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22467332.v1</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22467338.v1</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,24 +626,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361929674</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Supplemental Table 4 from Detection of Therapeutically Targetable Driver and Resistance Mutations in Lung Cancer Patients by Next-Generation Sequencing of Cell-Free Circulating Tumor DNA</t>
+          <t>https://openalex.org/W4361929876</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>Supplemental Table 3 from Detection of Therapeutically Targetable Driver and Resistance Mutations in Lung Cancer Patients by Next-Generation Sequencing of Cell-Free Circulating Tumor DNA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -636,50 +651,55 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22467338.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22467341.v1</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22467338.v1</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22467341.v1</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,24 +713,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361929874</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Supplemental Table 2 from Detection of Therapeutically Targetable Driver and Resistance Mutations in Lung Cancer Patients by Next-Generation Sequencing of Cell-Free Circulating Tumor DNA</t>
+          <t>https://openalex.org/W4361929986</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>Supplemental Table 5 from Detection of Therapeutically Targetable Driver and Resistance Mutations in Lung Cancer Patients by Next-Generation Sequencing of Cell-Free Circulating Tumor DNA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -718,50 +738,55 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22467344.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22467335.v1</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22467344.v1</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22467335.v1</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,24 +800,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361929876</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Supplemental Table 3 from Detection of Therapeutically Targetable Driver and Resistance Mutations in Lung Cancer Patients by Next-Generation Sequencing of Cell-Free Circulating Tumor DNA</t>
+          <t>https://openalex.org/W4361952619</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>Data from Detection of Therapeutically Targetable Driver and Resistance Mutations in Lung Cancer Patients by Next-Generation Sequencing of Cell-Free Circulating Tumor DNA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -800,50 +825,55 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22467341.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6526616.v1</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22467341.v1</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.c.6526616.v1</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,24 +887,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361929878</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Supplemental Table 7 from Detection of Therapeutically Targetable Driver and Resistance Mutations in Lung Cancer Patients by Next-Generation Sequencing of Cell-Free Circulating Tumor DNA</t>
+          <t>https://openalex.org/W4361959657</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>Data from Detection of Therapeutically Targetable Driver and Resistance Mutations in Lung Cancer Patients by Next-Generation Sequencing of Cell-Free Circulating Tumor DNA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -882,50 +912,55 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22467329.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6526616</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22467329.v1</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.c.6526616</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,24 +974,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361929986</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Supplemental Table 5 from Detection of Therapeutically Targetable Driver and Resistance Mutations in Lung Cancer Patients by Next-Generation Sequencing of Cell-Free Circulating Tumor DNA</t>
+          <t>https://openalex.org/W4362403056</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>Supplemental Table 3 from Detection of Therapeutically Targetable Driver and Resistance Mutations in Lung Cancer Patients by Next-Generation Sequencing of Cell-Free Circulating Tumor DNA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -964,50 +999,55 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22467335.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22467341</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22467335.v1</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22467341</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,24 +1061,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361930041</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Supplemental Figure 1 from Detection of Therapeutically Targetable Driver and Resistance Mutations in Lung Cancer Patients by Next-Generation Sequencing of Cell-Free Circulating Tumor DNA</t>
+          <t>https://openalex.org/W4362403059</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>Supplemental Table 6 from Detection of Therapeutically Targetable Driver and Resistance Mutations in Lung Cancer Patients by Next-Generation Sequencing of Cell-Free Circulating Tumor DNA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1046,50 +1086,55 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22467350.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22467332</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22467350.v1</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22467332</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,24 +1148,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361930084</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>https://openalex.org/W4362403428</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>Supplemental Table 1 from Detection of Therapeutically Targetable Driver and Resistance Mutations in Lung Cancer Patients by Next-Generation Sequencing of Cell-Free Circulating Tumor DNA</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1128,50 +1173,55 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22467347.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22467347</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22467347.v1</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22467347</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1185,24 +1235,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361952619</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Data from Detection of Therapeutically Targetable Driver and Resistance Mutations in Lung Cancer Patients by Next-Generation Sequencing of Cell-Free Circulating Tumor DNA</t>
+          <t>https://openalex.org/W4362403904</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>Supplemental Table 2 from Detection of Therapeutically Targetable Driver and Resistance Mutations in Lung Cancer Patients by Next-Generation Sequencing of Cell-Free Circulating Tumor DNA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1210,50 +1260,55 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6526616.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1078-0432.22467344</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6526616.v1</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22467344</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1267,24 +1322,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361959657</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Data from Detection of Therapeutically Targetable Driver and Resistance Mutations in Lung Cancer Patients by Next-Generation Sequencing of Cell-Free Circulating Tumor DNA</t>
+          <t>https://openalex.org/W4361929444</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>Supplemental Table 6 from Detection of Therapeutically Targetable Driver and Resistance Mutations in Lung Cancer Patients by Next-Generation Sequencing of Cell-Free Circulating Tumor DNA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1292,50 +1347,55 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6526616</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1078-0432.22467332.v1</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6526616</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22467332.v1</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1349,24 +1409,24 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362403056</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Supplemental Table 3 from Detection of Therapeutically Targetable Driver and Resistance Mutations in Lung Cancer Patients by Next-Generation Sequencing of Cell-Free Circulating Tumor DNA</t>
+          <t>https://openalex.org/W4361929874</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>Supplemental Table 2 from Detection of Therapeutically Targetable Driver and Resistance Mutations in Lung Cancer Patients by Next-Generation Sequencing of Cell-Free Circulating Tumor DNA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1374,50 +1434,55 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22467341</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22467344.v1</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22467341</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22467344.v1</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1431,24 +1496,24 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362403059</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Supplemental Table 6 from Detection of Therapeutically Targetable Driver and Resistance Mutations in Lung Cancer Patients by Next-Generation Sequencing of Cell-Free Circulating Tumor DNA</t>
+          <t>https://openalex.org/W4361929878</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>Supplemental Table 7 from Detection of Therapeutically Targetable Driver and Resistance Mutations in Lung Cancer Patients by Next-Generation Sequencing of Cell-Free Circulating Tumor DNA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1456,50 +1521,55 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22467332</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22467329.v1</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22467332</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22467329.v1</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1513,24 +1583,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362403340</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>https://openalex.org/W4361930041</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>Supplemental Figure 1 from Detection of Therapeutically Targetable Driver and Resistance Mutations in Lung Cancer Patients by Next-Generation Sequencing of Cell-Free Circulating Tumor DNA</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1538,50 +1608,55 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22467350</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22467350.v1</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22467350</t>
-        </is>
-      </c>
       <c r="P15" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22467350.v1</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1595,24 +1670,24 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362403421</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Supplemental Table 4 from Detection of Therapeutically Targetable Driver and Resistance Mutations in Lung Cancer Patients by Next-Generation Sequencing of Cell-Free Circulating Tumor DNA</t>
+          <t>https://openalex.org/W4361930084</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>Supplemental Table 1 from Detection of Therapeutically Targetable Driver and Resistance Mutations in Lung Cancer Patients by Next-Generation Sequencing of Cell-Free Circulating Tumor DNA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1620,50 +1695,55 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22467338</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22467347.v1</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22467338</t>
-        </is>
-      </c>
       <c r="P16" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22467347.v1</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1677,24 +1757,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362403428</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Supplemental Table 1 from Detection of Therapeutically Targetable Driver and Resistance Mutations in Lung Cancer Patients by Next-Generation Sequencing of Cell-Free Circulating Tumor DNA</t>
+          <t>https://openalex.org/W4362403340</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>Supplemental Figure 1 from Detection of Therapeutically Targetable Driver and Resistance Mutations in Lung Cancer Patients by Next-Generation Sequencing of Cell-Free Circulating Tumor DNA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1702,50 +1782,55 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22467347</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22467350</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22467347</t>
-        </is>
-      </c>
       <c r="P17" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22467350</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1759,24 +1844,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362403442</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Supplemental Table 7 from Detection of Therapeutically Targetable Driver and Resistance Mutations in Lung Cancer Patients by Next-Generation Sequencing of Cell-Free Circulating Tumor DNA</t>
+          <t>https://openalex.org/W4362403421</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>Supplemental Table 4 from Detection of Therapeutically Targetable Driver and Resistance Mutations in Lung Cancer Patients by Next-Generation Sequencing of Cell-Free Circulating Tumor DNA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1784,50 +1869,55 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22467329</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22467338</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22467329</t>
-        </is>
-      </c>
       <c r="P18" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22467338</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1841,24 +1931,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362403904</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Supplemental Table 2 from Detection of Therapeutically Targetable Driver and Resistance Mutations in Lung Cancer Patients by Next-Generation Sequencing of Cell-Free Circulating Tumor DNA</t>
+          <t>https://openalex.org/W4362403442</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>Supplemental Table 7 from Detection of Therapeutically Targetable Driver and Resistance Mutations in Lung Cancer Patients by Next-Generation Sequencing of Cell-Free Circulating Tumor DNA</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1866,50 +1956,55 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22467344</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22467329</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22467344</t>
-        </is>
-      </c>
       <c r="P19" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22467329</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1923,24 +2018,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4362404878</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Supplemental Table 5 from Detection of Therapeutically Targetable Driver and Resistance Mutations in Lung Cancer Patients by Next-Generation Sequencing of Cell-Free Circulating Tumor DNA</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1948,50 +2043,55 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1158/1078-0432.22467335</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/1078-0432.22467335</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>article</t>
         </is>
